--- a/Mathematical Model/Scarcity Model/parameters_w_50/ alpha/NonEmpty_diff_alpha3_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/ alpha/NonEmpty_diff_alpha3_firstrun.xlsx
@@ -452,22 +452,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4468085106382979</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="C3">
-        <v>0.5085836909871244</v>
+        <v>0.5235955056179775</v>
       </c>
       <c r="D3">
-        <v>0.4703389830508475</v>
+        <v>0.5210084033613446</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>0.5098901098901099</v>
       </c>
       <c r="F3">
-        <v>0.4749034749034749</v>
+        <v>0.5019607843137255</v>
       </c>
       <c r="G3">
-        <v>0.5082304526748971</v>
+        <v>0.5010660980810234</v>
       </c>
       <c r="H3">
         <v>0.498</v>
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.527027027027027</v>
       </c>
       <c r="C4">
-        <v>0.5183585313174947</v>
+        <v>0.5206422018348624</v>
       </c>
       <c r="D4">
-        <v>0.4630872483221476</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E4">
-        <v>0.5179856115107914</v>
+        <v>0.502262443438914</v>
       </c>
       <c r="F4">
-        <v>0.5071428571428571</v>
+        <v>0.5031055900621118</v>
       </c>
       <c r="G4">
-        <v>0.518840579710145</v>
+        <v>0.4955489614243324</v>
       </c>
       <c r="H4">
-        <v>0.488</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4597701149425287</v>
+        <v>0.5411764705882353</v>
       </c>
       <c r="C5">
-        <v>0.5279503105590062</v>
+        <v>0.5132743362831859</v>
       </c>
       <c r="D5">
-        <v>0.4488188976377953</v>
+        <v>0.4149659863945578</v>
       </c>
       <c r="E5">
-        <v>0.5118733509234829</v>
+        <v>0.5187239944521498</v>
       </c>
       <c r="F5">
-        <v>0.4070796460176991</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="G5">
-        <v>0.5069356872635561</v>
+        <v>0.4993498049414825</v>
       </c>
       <c r="H5">
-        <v>0.488</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.48</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C6">
-        <v>0.5374015748031497</v>
+        <v>0.523109243697479</v>
       </c>
       <c r="D6">
-        <v>0.4128440366972477</v>
+        <v>0.4065040650406504</v>
       </c>
       <c r="E6">
-        <v>0.5239327296248383</v>
+        <v>0.511968085106383</v>
       </c>
       <c r="F6">
-        <v>0.3829787234042553</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="G6">
-        <v>0.5112219451371571</v>
+        <v>0.4937655860349127</v>
       </c>
       <c r="H6">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5531914893617021</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="C7">
-        <v>0.5430210325047801</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="D7">
-        <v>0.4285714285714285</v>
+        <v>0.3983739837398374</v>
       </c>
       <c r="E7">
-        <v>0.5136186770428015</v>
+        <v>0.5085413929040736</v>
       </c>
       <c r="F7">
-        <v>0.3211009174311927</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.5155666251556662</v>
+        <v>0.4993819530284301</v>
       </c>
       <c r="H7">
-        <v>0.47</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5188679245283019</v>
+        <v>0.49</v>
       </c>
       <c r="C8">
-        <v>0.5406360424028268</v>
+        <v>0.5362595419847328</v>
       </c>
       <c r="D8">
-        <v>0.416</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="E8">
-        <v>0.5152317880794702</v>
+        <v>0.4986842105263158</v>
       </c>
       <c r="F8">
-        <v>0.4158415841584158</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="G8">
-        <v>0.5139593908629442</v>
+        <v>0.5006273525721455</v>
       </c>
       <c r="H8">
-        <v>0.47</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.48</v>
+        <v>0.4907407407407408</v>
       </c>
       <c r="C9">
-        <v>0.5525423728813559</v>
+        <v>0.5395430579964851</v>
       </c>
       <c r="D9">
-        <v>0.4</v>
+        <v>0.3769230769230769</v>
       </c>
       <c r="E9">
-        <v>0.5092592592592593</v>
+        <v>0.5052083333333334</v>
       </c>
       <c r="F9">
-        <v>0.4018691588785047</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="G9">
-        <v>0.5012594458438288</v>
+        <v>0.5044025157232704</v>
       </c>
       <c r="H9">
-        <v>0.462</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4526315789473684</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>0.5579937304075235</v>
+        <v>0.5413793103448276</v>
       </c>
       <c r="D10">
-        <v>0.3622047244094488</v>
+        <v>0.3629032258064516</v>
       </c>
       <c r="E10">
-        <v>0.5052910052910053</v>
+        <v>0.5154362416107383</v>
       </c>
       <c r="F10">
-        <v>0.4210526315789473</v>
+        <v>0.3925233644859813</v>
       </c>
       <c r="G10">
-        <v>0.4949622166246851</v>
+        <v>0.5096277278562259</v>
       </c>
       <c r="H10">
-        <v>0.462</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4205607476635514</v>
+        <v>0.4678899082568808</v>
       </c>
       <c r="C11">
-        <v>0.5630630630630631</v>
+        <v>0.5331125827814569</v>
       </c>
       <c r="D11">
-        <v>0.3809523809523809</v>
+        <v>0.4198473282442748</v>
       </c>
       <c r="E11">
-        <v>0.5092838196286472</v>
+        <v>0.5081743869209809</v>
       </c>
       <c r="F11">
-        <v>0.4456521739130435</v>
+        <v>0.4471544715447154</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.5136540962288687</v>
       </c>
       <c r="H11">
-        <v>0.438</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4504504504504505</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C12">
-        <v>0.5726872246696035</v>
+        <v>0.532258064516129</v>
       </c>
       <c r="D12">
-        <v>0.4313725490196079</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="E12">
-        <v>0.5067567567567568</v>
+        <v>0.5041095890410959</v>
       </c>
       <c r="F12">
-        <v>0.3644859813084112</v>
+        <v>0.4491525423728814</v>
       </c>
       <c r="G12">
-        <v>0.495575221238938</v>
+        <v>0.5045992115637319</v>
       </c>
       <c r="H12">
-        <v>0.42</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4811320754716981</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C13">
-        <v>0.5653409090909091</v>
+        <v>0.536547433903577</v>
       </c>
       <c r="D13">
-        <v>0.4014598540145985</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
-        <v>0.4958100558659218</v>
+        <v>0.5069637883008357</v>
       </c>
       <c r="F13">
-        <v>0.3942307692307692</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="G13">
-        <v>0.5006402048655569</v>
+        <v>0.4993446920052425</v>
       </c>
       <c r="H13">
-        <v>0.404</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.46</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="C14">
-        <v>0.5512649800266312</v>
+        <v>0.5327380952380952</v>
       </c>
       <c r="D14">
-        <v>0.4142857142857143</v>
+        <v>0.4276315789473684</v>
       </c>
       <c r="E14">
-        <v>0.4912516823687753</v>
+        <v>0.4979253112033195</v>
       </c>
       <c r="F14">
-        <v>0.4035087719298245</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G14">
-        <v>0.4949367088607595</v>
+        <v>0.4947916666666667</v>
       </c>
       <c r="H14">
-        <v>0.384</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5094339622641509</v>
+        <v>0.44</v>
       </c>
       <c r="C15">
-        <v>0.5376756066411239</v>
+        <v>0.5430183356840621</v>
       </c>
       <c r="D15">
-        <v>0.4634146341463415</v>
+        <v>0.4692307692307692</v>
       </c>
       <c r="E15">
-        <v>0.4986595174262735</v>
+        <v>0.5142083897158322</v>
       </c>
       <c r="F15">
-        <v>0.4646464646464646</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G15">
-        <v>0.4871794871794872</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="H15">
-        <v>0.386</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4774774774774775</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>0.5343137254901961</v>
+        <v>0.5490463215258855</v>
       </c>
       <c r="D16">
-        <v>0.5078125</v>
+        <v>0.45</v>
       </c>
       <c r="E16">
-        <v>0.4986876640419948</v>
+        <v>0.5059132720105125</v>
       </c>
       <c r="F16">
-        <v>0.4519230769230769</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="G16">
-        <v>0.4736842105263158</v>
+        <v>0.4821882951653944</v>
       </c>
       <c r="H16">
-        <v>0.39</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4666666666666667</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="C17">
-        <v>0.5365566037735849</v>
+        <v>0.5328185328185329</v>
       </c>
       <c r="D17">
-        <v>0.464</v>
+        <v>0.392</v>
       </c>
       <c r="E17">
-        <v>0.4993412384716733</v>
+        <v>0.5103896103896104</v>
       </c>
       <c r="F17">
-        <v>0.4193548387096774</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="G17">
-        <v>0.4644194756554307</v>
+        <v>0.4860050890585242</v>
       </c>
       <c r="H17">
-        <v>0.394</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4857142857142857</v>
+        <v>0.5803571428571429</v>
       </c>
       <c r="C18">
-        <v>0.536723163841808</v>
+        <v>0.5315533980582524</v>
       </c>
       <c r="D18">
-        <v>0.4628099173553719</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="E18">
-        <v>0.5104986876640421</v>
+        <v>0.5064599483204134</v>
       </c>
       <c r="F18">
-        <v>0.4175824175824176</v>
+        <v>0.3523809523809524</v>
       </c>
       <c r="G18">
-        <v>0.4623921085080148</v>
+        <v>0.4719800747198007</v>
       </c>
       <c r="H18">
-        <v>0.392</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4951456310679612</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="C19">
-        <v>0.5443592552026287</v>
+        <v>0.5254629629629629</v>
       </c>
       <c r="D19">
-        <v>0.4700854700854701</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="E19">
-        <v>0.5139072847682119</v>
+        <v>0.5038860103626943</v>
       </c>
       <c r="F19">
-        <v>0.375</v>
+        <v>0.4183673469387755</v>
       </c>
       <c r="G19">
-        <v>0.458072590738423</v>
+        <v>0.4679245283018868</v>
       </c>
       <c r="H19">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5089285714285714</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="C20">
-        <v>0.5433403805496829</v>
+        <v>0.5412429378531074</v>
       </c>
       <c r="D20">
-        <v>0.3582089552238806</v>
+        <v>0.3931623931623932</v>
       </c>
       <c r="E20">
-        <v>0.5204755614266843</v>
+        <v>0.4980026631158455</v>
       </c>
       <c r="F20">
-        <v>0.4150943396226415</v>
+        <v>0.375</v>
       </c>
       <c r="G20">
-        <v>0.452948557089084</v>
+        <v>0.4641025641025641</v>
       </c>
       <c r="H20">
-        <v>0.386</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4313725490196079</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="C21">
-        <v>0.5474974463738509</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="D21">
-        <v>0.4152542372881356</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="E21">
-        <v>0.5271523178807948</v>
+        <v>0.5167785234899329</v>
       </c>
       <c r="F21">
-        <v>0.336283185840708</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="G21">
-        <v>0.4535175879396985</v>
+        <v>0.4671814671814672</v>
       </c>
       <c r="H21">
-        <v>0.374</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4905660377358491</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C22">
-        <v>0.5477582846003899</v>
+        <v>0.5412748171368861</v>
       </c>
       <c r="D22">
-        <v>0.3391304347826087</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="E22">
-        <v>0.5127551020408163</v>
+        <v>0.5141700404858299</v>
       </c>
       <c r="F22">
-        <v>0.3505154639175257</v>
+        <v>0.3504273504273504</v>
       </c>
       <c r="G22">
-        <v>0.4506866416978776</v>
+        <v>0.4568527918781726</v>
       </c>
       <c r="H22">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4553571428571428</v>
+        <v>0.5392156862745098</v>
       </c>
       <c r="C23">
-        <v>0.5394862036156042</v>
+        <v>0.5398773006134969</v>
       </c>
       <c r="D23">
-        <v>0.4018691588785047</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="E23">
-        <v>0.5070063694267516</v>
+        <v>0.5013477088948787</v>
       </c>
       <c r="F23">
-        <v>0.3516483516483517</v>
+        <v>0.3592233009708738</v>
       </c>
       <c r="G23">
-        <v>0.4509803921568628</v>
+        <v>0.4622279129321383</v>
       </c>
       <c r="H23">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.462962962962963</v>
+        <v>0.5145631067961165</v>
       </c>
       <c r="C24">
-        <v>0.5427509293680297</v>
+        <v>0.5415841584158416</v>
       </c>
       <c r="D24">
-        <v>0.4196428571428572</v>
+        <v>0.4538461538461538</v>
       </c>
       <c r="E24">
-        <v>0.4968071519795658</v>
+        <v>0.4959677419354839</v>
       </c>
       <c r="F24">
-        <v>0.4432989690721649</v>
+        <v>0.3982300884955752</v>
       </c>
       <c r="G24">
-        <v>0.4466257668711656</v>
+        <v>0.4558080808080808</v>
       </c>
       <c r="H24">
-        <v>0.384</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,22 +1024,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4473684210526316</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="C25">
-        <v>0.5383228133453561</v>
+        <v>0.5520231213872833</v>
       </c>
       <c r="D25">
-        <v>0.4496124031007752</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="E25">
-        <v>0.4935064935064935</v>
+        <v>0.4979919678714859</v>
       </c>
       <c r="F25">
-        <v>0.4901960784313725</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="G25">
-        <v>0.443609022556391</v>
+        <v>0.4491094147582697</v>
       </c>
       <c r="H25">
         <v>0.378</v>
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.4210526315789473</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="C26">
-        <v>0.5464190981432361</v>
+        <v>0.5587958607714016</v>
       </c>
       <c r="D26">
-        <v>0.4117647058823529</v>
+        <v>0.3787878787878788</v>
       </c>
       <c r="E26">
-        <v>0.4959785522788204</v>
+        <v>0.492676431424767</v>
       </c>
       <c r="F26">
-        <v>0.4521739130434783</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="G26">
-        <v>0.4397972116603295</v>
+        <v>0.4523506988564168</v>
       </c>
       <c r="H26">
-        <v>0.376</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.4297520661157025</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>0.5498281786941581</v>
+        <v>0.5569735642661805</v>
       </c>
       <c r="D27">
-        <v>0.3955223880597015</v>
+        <v>0.4031007751937984</v>
       </c>
       <c r="E27">
-        <v>0.5026881720430108</v>
+        <v>0.4953145917001339</v>
       </c>
       <c r="F27">
-        <v>0.3790322580645161</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="G27">
-        <v>0.4400510204081632</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="H27">
-        <v>0.368</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.4247787610619469</v>
+        <v>0.5420560747663551</v>
       </c>
       <c r="C28">
-        <v>0.5544303797468354</v>
+        <v>0.5635062611806798</v>
       </c>
       <c r="D28">
-        <v>0.371900826446281</v>
+        <v>0.4351145038167939</v>
       </c>
       <c r="E28">
-        <v>0.495364238410596</v>
+        <v>0.4913217623497997</v>
       </c>
       <c r="F28">
-        <v>0.3781512605042017</v>
+        <v>0.3706896551724138</v>
       </c>
       <c r="G28">
-        <v>0.4455825864276569</v>
+        <v>0.4596670934699104</v>
       </c>
       <c r="H28">
-        <v>0.352</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.4324324324324325</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="C29">
-        <v>0.559640522875817</v>
+        <v>0.5615720524017467</v>
       </c>
       <c r="D29">
-        <v>0.3414634146341464</v>
+        <v>0.3565891472868217</v>
       </c>
       <c r="E29">
-        <v>0.4830287206266319</v>
+        <v>0.492</v>
       </c>
       <c r="F29">
-        <v>0.4424778761061947</v>
+        <v>0.3760683760683761</v>
       </c>
       <c r="G29">
-        <v>0.4450127877237852</v>
+        <v>0.4465894465894466</v>
       </c>
       <c r="H29">
-        <v>0.354</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.509090909090909</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C30">
-        <v>0.5612648221343873</v>
+        <v>0.5540540540540541</v>
       </c>
       <c r="D30">
-        <v>0.2936507936507937</v>
+        <v>0.390625</v>
       </c>
       <c r="E30">
-        <v>0.4766233766233766</v>
+        <v>0.4973404255319149</v>
       </c>
       <c r="F30">
-        <v>0.4862385321100918</v>
+        <v>0.3274336283185841</v>
       </c>
       <c r="G30">
-        <v>0.4366373902132999</v>
+        <v>0.4394904458598726</v>
       </c>
       <c r="H30">
-        <v>0.35</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5391304347826087</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="C31">
-        <v>0.5515903801396431</v>
+        <v>0.5478547854785478</v>
       </c>
       <c r="D31">
-        <v>0.288135593220339</v>
+        <v>0.4503816793893129</v>
       </c>
       <c r="E31">
-        <v>0.4750656167979003</v>
+        <v>0.4862023653088042</v>
       </c>
       <c r="F31">
-        <v>0.4269662921348314</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="G31">
-        <v>0.4375</v>
+        <v>0.4390862944162436</v>
       </c>
       <c r="H31">
-        <v>0.356</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5132743362831859</v>
+        <v>0.5420560747663551</v>
       </c>
       <c r="C32">
-        <v>0.5508345978755691</v>
+        <v>0.5522508038585209</v>
       </c>
       <c r="D32">
-        <v>0.3931623931623932</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="E32">
-        <v>0.4694408322496749</v>
+        <v>0.4875164257555847</v>
       </c>
       <c r="F32">
-        <v>0.3814432989690721</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G32">
-        <v>0.4462102689486552</v>
+        <v>0.4368686868686869</v>
       </c>
       <c r="H32">
-        <v>0.342</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.4907407407407408</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C33">
-        <v>0.5515695067264574</v>
+        <v>0.5500387897595035</v>
       </c>
       <c r="D33">
-        <v>0.3302752293577982</v>
+        <v>0.4112903225806452</v>
       </c>
       <c r="E33">
-        <v>0.4577373211963589</v>
+        <v>0.4856020942408377</v>
       </c>
       <c r="F33">
-        <v>0.3723404255319149</v>
+        <v>0.3663366336633663</v>
       </c>
       <c r="G33">
-        <v>0.4472049689440994</v>
+        <v>0.4258793969849246</v>
       </c>
       <c r="H33">
-        <v>0.344</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5051546391752577</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="C34">
-        <v>0.553269654665687</v>
+        <v>0.546969696969697</v>
       </c>
       <c r="D34">
-        <v>0.373015873015873</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="E34">
-        <v>0.4692005242463958</v>
+        <v>0.4830287206266319</v>
       </c>
       <c r="F34">
-        <v>0.34</v>
+        <v>0.4432989690721649</v>
       </c>
       <c r="G34">
-        <v>0.4531645569620253</v>
+        <v>0.428927680798005</v>
       </c>
       <c r="H34">
-        <v>0.328</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5445544554455446</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C35">
-        <v>0.5492558469170801</v>
+        <v>0.5490051584377302</v>
       </c>
       <c r="D35">
-        <v>0.3692307692307693</v>
+        <v>0.4322033898305085</v>
       </c>
       <c r="E35">
-        <v>0.4569190600522193</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="F35">
-        <v>0.3220338983050847</v>
+        <v>0.4326923076923077</v>
       </c>
       <c r="G35">
-        <v>0.4476309226932668</v>
+        <v>0.4094881398252185</v>
       </c>
       <c r="H35">
-        <v>0.336</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5094339622641509</v>
+        <v>0.5</v>
       </c>
       <c r="C36">
-        <v>0.5450070323488045</v>
+        <v>0.5560407569141194</v>
       </c>
       <c r="D36">
-        <v>0.4128440366972477</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="E36">
-        <v>0.4549019607843137</v>
+        <v>0.4864516129032258</v>
       </c>
       <c r="F36">
-        <v>0.3956043956043956</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="G36">
-        <v>0.4472361809045226</v>
+        <v>0.418227215980025</v>
       </c>
       <c r="H36">
-        <v>0.328</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.4639175257731959</v>
+        <v>0.4608695652173913</v>
       </c>
       <c r="C37">
-        <v>0.5526866713189114</v>
+        <v>0.5468299711815562</v>
       </c>
       <c r="D37">
-        <v>0.4247787610619469</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="E37">
-        <v>0.4368421052631579</v>
+        <v>0.4846547314578005</v>
       </c>
       <c r="F37">
-        <v>0.3737373737373738</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="G37">
-        <v>0.4325</v>
+        <v>0.4257178526841448</v>
       </c>
       <c r="H37">
-        <v>0.346</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.456140350877193</v>
+        <v>0.4608695652173913</v>
       </c>
       <c r="C38">
-        <v>0.5535353535353535</v>
+        <v>0.5503931379556827</v>
       </c>
       <c r="D38">
-        <v>0.3858267716535433</v>
+        <v>0.4344262295081967</v>
       </c>
       <c r="E38">
-        <v>0.4383916990920882</v>
+        <v>0.4841688654353562</v>
       </c>
       <c r="F38">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G38">
-        <v>0.4328358208955224</v>
+        <v>0.4292993630573249</v>
       </c>
       <c r="H38">
-        <v>0.346</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.5041322314049587</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="C39">
-        <v>0.5548821548821549</v>
+        <v>0.5504201680672269</v>
       </c>
       <c r="D39">
-        <v>0.3928571428571428</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="E39">
-        <v>0.442257217847769</v>
+        <v>0.4853723404255319</v>
       </c>
       <c r="F39">
-        <v>0.3932584269662922</v>
+        <v>0.3801652892561984</v>
       </c>
       <c r="G39">
-        <v>0.43734335839599</v>
+        <v>0.4338422391857507</v>
       </c>
       <c r="H39">
-        <v>0.342</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.4727272727272727</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="C40">
-        <v>0.5449141347424042</v>
+        <v>0.5426039536468984</v>
       </c>
       <c r="D40">
-        <v>0.40625</v>
+        <v>0.3865546218487395</v>
       </c>
       <c r="E40">
-        <v>0.4385510996119017</v>
+        <v>0.4921671018276763</v>
       </c>
       <c r="F40">
-        <v>0.3163265306122449</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="G40">
-        <v>0.4331683168316832</v>
+        <v>0.4314980793854034</v>
       </c>
       <c r="H40">
-        <v>0.338</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.4947368421052631</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C41">
-        <v>0.5479716677398584</v>
+        <v>0.5406312961719275</v>
       </c>
       <c r="D41">
-        <v>0.4322033898305085</v>
+        <v>0.4453781512605042</v>
       </c>
       <c r="E41">
-        <v>0.443579766536965</v>
+        <v>0.4928848641655886</v>
       </c>
       <c r="F41">
-        <v>0.3627450980392157</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="G41">
-        <v>0.4312039312039312</v>
+        <v>0.4341279799247177</v>
       </c>
       <c r="H41">
-        <v>0.34</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.4897959183673469</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C42">
-        <v>0.541588492808005</v>
+        <v>0.536021150033047</v>
       </c>
       <c r="D42">
-        <v>0.3963963963963964</v>
+        <v>0.4841269841269841</v>
       </c>
       <c r="E42">
-        <v>0.4557124518613607</v>
+        <v>0.4896640826873385</v>
       </c>
       <c r="F42">
-        <v>0.3333333333333333</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="G42">
-        <v>0.426980198019802</v>
+        <v>0.4267990074441687</v>
       </c>
       <c r="H42">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4705882352941176</v>
+        <v>0.512396694214876</v>
       </c>
       <c r="C43">
-        <v>0.5354719309068476</v>
+        <v>0.5294880103694103</v>
       </c>
       <c r="D43">
-        <v>0.4649122807017544</v>
+        <v>0.5163934426229508</v>
       </c>
       <c r="E43">
-        <v>0.4533844189016603</v>
+        <v>0.4811932555123217</v>
       </c>
       <c r="F43">
-        <v>0.31</v>
+        <v>0.4252873563218391</v>
       </c>
       <c r="G43">
-        <v>0.4356435643564356</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="H43">
-        <v>0.328</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4536082474226804</v>
+        <v>0.4953271028037383</v>
       </c>
       <c r="C44">
-        <v>0.5339449541284403</v>
+        <v>0.5342551854179761</v>
       </c>
       <c r="D44">
-        <v>0.5163934426229508</v>
+        <v>0.4824561403508772</v>
       </c>
       <c r="E44">
-        <v>0.4532467532467532</v>
+        <v>0.4866581956797967</v>
       </c>
       <c r="F44">
-        <v>0.3592233009708738</v>
+        <v>0.4175824175824176</v>
       </c>
       <c r="G44">
-        <v>0.4404015056461731</v>
+        <v>0.4209891435464415</v>
       </c>
       <c r="H44">
-        <v>0.324</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5333333333333333</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="C45">
-        <v>0.5349397590361445</v>
+        <v>0.5320708613317043</v>
       </c>
       <c r="D45">
-        <v>0.464</v>
+        <v>0.4021739130434783</v>
       </c>
       <c r="E45">
-        <v>0.4561170212765958</v>
+        <v>0.4930643127364439</v>
       </c>
       <c r="F45">
-        <v>0.3660714285714285</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="G45">
-        <v>0.4351145038167939</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="H45">
-        <v>0.322</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.4952380952380953</v>
+        <v>0.4591836734693878</v>
       </c>
       <c r="C46">
-        <v>0.5280095351609059</v>
+        <v>0.533933933933934</v>
       </c>
       <c r="D46">
-        <v>0.3684210526315789</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E46">
-        <v>0.4649933949801849</v>
+        <v>0.4924050632911393</v>
       </c>
       <c r="F46">
-        <v>0.412280701754386</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="G46">
-        <v>0.420584498094028</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="H46">
-        <v>0.338</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.4576271186440678</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="C47">
-        <v>0.5277615429573349</v>
+        <v>0.5363095238095238</v>
       </c>
       <c r="D47">
-        <v>0.4015151515151515</v>
+        <v>0.3983050847457627</v>
       </c>
       <c r="E47">
-        <v>0.4829842931937173</v>
+        <v>0.4987179487179487</v>
       </c>
       <c r="F47">
-        <v>0.3831775700934579</v>
+        <v>0.3644859813084112</v>
       </c>
       <c r="G47">
-        <v>0.4192740926157697</v>
+        <v>0.4298356510745892</v>
       </c>
       <c r="H47">
-        <v>0.328</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.4905660377358491</v>
+        <v>0.4299065420560748</v>
       </c>
       <c r="C48">
-        <v>0.5302942873629544</v>
+        <v>0.5320399764844209</v>
       </c>
       <c r="D48">
-        <v>0.4310344827586207</v>
+        <v>0.4253731343283582</v>
       </c>
       <c r="E48">
-        <v>0.484251968503937</v>
+        <v>0.499330655957162</v>
       </c>
       <c r="F48">
-        <v>0.3168316831683168</v>
+        <v>0.319327731092437</v>
       </c>
       <c r="G48">
-        <v>0.4207240948813982</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="H48">
-        <v>0.33</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5545454545454546</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="C49">
-        <v>0.5271800679501699</v>
+        <v>0.5368543238537434</v>
       </c>
       <c r="D49">
-        <v>0.423728813559322</v>
+        <v>0.4609929078014184</v>
       </c>
       <c r="E49">
-        <v>0.4745762711864407</v>
+        <v>0.4959785522788204</v>
       </c>
       <c r="F49">
-        <v>0.3627450980392157</v>
+        <v>0.3307086614173229</v>
       </c>
       <c r="G49">
-        <v>0.4251572327044025</v>
+        <v>0.4234234234234234</v>
       </c>
       <c r="H49">
-        <v>0.33</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.5321100917431193</v>
+        <v>0.46875</v>
       </c>
       <c r="C50">
-        <v>0.5287485907553551</v>
+        <v>0.5347654041831543</v>
       </c>
       <c r="D50">
-        <v>0.4328358208955224</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="E50">
-        <v>0.48</v>
+        <v>0.4900662251655629</v>
       </c>
       <c r="F50">
-        <v>0.4311926605504587</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="G50">
-        <v>0.4197689345314506</v>
+        <v>0.4256410256410256</v>
       </c>
       <c r="H50">
-        <v>0.33</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.5288461538461539</v>
+        <v>0.5148514851485149</v>
       </c>
       <c r="C51">
-        <v>0.5283018867924528</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="D51">
-        <v>0.3284671532846715</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="E51">
-        <v>0.4824797843665768</v>
+        <v>0.5026178010471204</v>
       </c>
       <c r="F51">
-        <v>0.4214876033057851</v>
+        <v>0.3861386138613861</v>
       </c>
       <c r="G51">
-        <v>0.4207161125319693</v>
+        <v>0.4170918367346939</v>
       </c>
       <c r="H51">
-        <v>0.322</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5339805825242718</v>
+        <v>0.53125</v>
       </c>
       <c r="C52">
-        <v>0.5282501371365881</v>
+        <v>0.5263742365352582</v>
       </c>
       <c r="D52">
-        <v>0.3884297520661157</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="E52">
-        <v>0.4854111405835544</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="F52">
-        <v>0.3596491228070176</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="G52">
-        <v>0.4209183673469388</v>
+        <v>0.4223057644110276</v>
       </c>
       <c r="H52">
-        <v>0.322</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.4918032786885246</v>
+        <v>0.5514018691588785</v>
       </c>
       <c r="C53">
-        <v>0.5317545748116254</v>
+        <v>0.5226404800872886</v>
       </c>
       <c r="D53">
-        <v>0.3688524590163935</v>
+        <v>0.3884297520661157</v>
       </c>
       <c r="E53">
-        <v>0.4791666666666667</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="F53">
-        <v>0.3611111111111111</v>
+        <v>0.3786407766990291</v>
       </c>
       <c r="G53">
-        <v>0.4310998735777497</v>
+        <v>0.4301745635910225</v>
       </c>
       <c r="H53">
-        <v>0.31</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.4732142857142857</v>
+        <v>0.487603305785124</v>
       </c>
       <c r="C54">
-        <v>0.5332252836304701</v>
+        <v>0.5225176342919153</v>
       </c>
       <c r="D54">
-        <v>0.3448275862068966</v>
+        <v>0.375</v>
       </c>
       <c r="E54">
-        <v>0.4559789750328515</v>
+        <v>0.4973958333333333</v>
       </c>
       <c r="F54">
-        <v>0.3240740740740741</v>
+        <v>0.38</v>
       </c>
       <c r="G54">
-        <v>0.4278544542032622</v>
+        <v>0.4305381727158949</v>
       </c>
       <c r="H54">
-        <v>0.314</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.4677419354838709</v>
+        <v>0.4596774193548387</v>
       </c>
       <c r="C55">
-        <v>0.533794571580628</v>
+        <v>0.5260612573885008</v>
       </c>
       <c r="D55">
-        <v>0.3652173913043478</v>
+        <v>0.3675213675213675</v>
       </c>
       <c r="E55">
-        <v>0.4507227332457293</v>
+        <v>0.4967824967824968</v>
       </c>
       <c r="F55">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="G55">
-        <v>0.435929648241206</v>
+        <v>0.4321295143212951</v>
       </c>
       <c r="H55">
-        <v>0.322</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.4786324786324787</v>
+        <v>0.4513274336283186</v>
       </c>
       <c r="C56">
-        <v>0.5302547770700637</v>
+        <v>0.5311335816923896</v>
       </c>
       <c r="D56">
-        <v>0.3658536585365854</v>
+        <v>0.3302752293577982</v>
       </c>
       <c r="E56">
-        <v>0.4627450980392157</v>
+        <v>0.4921875</v>
       </c>
       <c r="F56">
-        <v>0.3364485981308411</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="G56">
-        <v>0.44</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H56">
-        <v>0.316</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.5263157894736842</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="C57">
-        <v>0.5280545359202936</v>
+        <v>0.5288562434417629</v>
       </c>
       <c r="D57">
-        <v>0.415929203539823</v>
+        <v>0.344</v>
       </c>
       <c r="E57">
-        <v>0.4657894736842105</v>
+        <v>0.491480996068152</v>
       </c>
       <c r="F57">
-        <v>0.2897196261682243</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="G57">
-        <v>0.4450063211125158</v>
+        <v>0.4278481012658228</v>
       </c>
       <c r="H57">
-        <v>0.328</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.4869565217391305</v>
+        <v>0.5048543689320388</v>
       </c>
       <c r="C58">
-        <v>0.520973588814086</v>
+        <v>0.5261793675479524</v>
       </c>
       <c r="D58">
-        <v>0.4444444444444444</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E58">
-        <v>0.461139896373057</v>
+        <v>0.4735449735449735</v>
       </c>
       <c r="F58">
-        <v>0.3018867924528302</v>
+        <v>0.3909090909090909</v>
       </c>
       <c r="G58">
-        <v>0.4325346784363178</v>
+        <v>0.4311224489795918</v>
       </c>
       <c r="H58">
-        <v>0.348</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="C59">
-        <v>0.5200813421453991</v>
+        <v>0.5279755849440488</v>
       </c>
       <c r="D59">
-        <v>0.4655172413793103</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="E59">
-        <v>0.4576923076923077</v>
+        <v>0.4566929133858268</v>
       </c>
       <c r="F59">
-        <v>0.3333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G59">
-        <v>0.428927680798005</v>
+        <v>0.4361567635903919</v>
       </c>
       <c r="H59">
-        <v>0.348</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.4957264957264957</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="C60">
-        <v>0.516983016983017</v>
+        <v>0.5290581162324649</v>
       </c>
       <c r="D60">
-        <v>0.4951456310679612</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="E60">
-        <v>0.4692307692307692</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="F60">
-        <v>0.375</v>
+        <v>0.4433962264150944</v>
       </c>
       <c r="G60">
-        <v>0.422360248447205</v>
+        <v>0.4423320659062104</v>
       </c>
       <c r="H60">
-        <v>0.36</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.4770642201834863</v>
+        <v>0.5363636363636364</v>
       </c>
       <c r="C61">
-        <v>0.5129740518962076</v>
+        <v>0.5263936852491367</v>
       </c>
       <c r="D61">
-        <v>0.4375</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="E61">
-        <v>0.4659820282413351</v>
+        <v>0.4581724581724582</v>
       </c>
       <c r="F61">
-        <v>0.3577981651376147</v>
+        <v>0.4495412844036697</v>
       </c>
       <c r="G61">
-        <v>0.4195979899497487</v>
+        <v>0.447103274559194</v>
       </c>
       <c r="H61">
-        <v>0.352</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.5121951219512195</v>
+        <v>0.5446428571428571</v>
       </c>
       <c r="C62">
-        <v>0.5136852394916911</v>
+        <v>0.52587890625</v>
       </c>
       <c r="D62">
-        <v>0.4695652173913044</v>
+        <v>0.3831775700934579</v>
       </c>
       <c r="E62">
-        <v>0.4884020618556701</v>
+        <v>0.4512820512820513</v>
       </c>
       <c r="F62">
-        <v>0.4017857142857143</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="G62">
-        <v>0.4198473282442748</v>
+        <v>0.4401972872996301</v>
       </c>
       <c r="H62">
-        <v>0.358</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.5087719298245614</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="C63">
-        <v>0.5150631681243926</v>
+        <v>0.5262650602409639</v>
       </c>
       <c r="D63">
-        <v>0.4705882352941176</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="E63">
-        <v>0.4882506527415144</v>
+        <v>0.4474017743979721</v>
       </c>
       <c r="F63">
-        <v>0.3508771929824561</v>
+        <v>0.4</v>
       </c>
       <c r="G63">
-        <v>0.413572343149808</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="H63">
-        <v>0.36</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.4811320754716981</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="C64">
-        <v>0.5138226882745471</v>
+        <v>0.5298076923076923</v>
       </c>
       <c r="D64">
-        <v>0.4354838709677419</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="E64">
-        <v>0.4848101265822785</v>
+        <v>0.4593175853018373</v>
       </c>
       <c r="F64">
-        <v>0.3700787401574803</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="G64">
-        <v>0.4126582278481012</v>
+        <v>0.450063211125158</v>
       </c>
       <c r="H64">
-        <v>0.356</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.4482758620689655</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C65">
-        <v>0.511899206719552</v>
+        <v>0.5287631831255992</v>
       </c>
       <c r="D65">
-        <v>0.4090909090909091</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="E65">
-        <v>0.4904458598726115</v>
+        <v>0.4619422572178478</v>
       </c>
       <c r="F65">
-        <v>0.3939393939393939</v>
+        <v>0.3008130081300813</v>
       </c>
       <c r="G65">
-        <v>0.4136191677175284</v>
+        <v>0.4519846350832266</v>
       </c>
       <c r="H65">
-        <v>0.35</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.4621848739495799</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="C66">
-        <v>0.5150812064965197</v>
+        <v>0.5291079812206573</v>
       </c>
       <c r="D66">
-        <v>0.4107142857142857</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="E66">
-        <v>0.4968233799237611</v>
+        <v>0.4501312335958005</v>
       </c>
       <c r="F66">
-        <v>0.3564356435643564</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="G66">
-        <v>0.4137931034482759</v>
+        <v>0.453024453024453</v>
       </c>
       <c r="H66">
-        <v>0.348</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.5040650406504065</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C67">
-        <v>0.5133517495395948</v>
+        <v>0.5258019525801952</v>
       </c>
       <c r="D67">
-        <v>0.3545454545454546</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="E67">
-        <v>0.5057766367137355</v>
+        <v>0.4513157894736842</v>
       </c>
       <c r="F67">
-        <v>0.3425925925925926</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G67">
-        <v>0.4175</v>
+        <v>0.4472681067344346</v>
       </c>
       <c r="H67">
-        <v>0.342</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5175438596491229</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="C68">
-        <v>0.510306917086578</v>
+        <v>0.5257116620752984</v>
       </c>
       <c r="D68">
-        <v>0.3363636363636364</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="E68">
-        <v>0.5084087968952135</v>
+        <v>0.4484126984126984</v>
       </c>
       <c r="F68">
-        <v>0.34</v>
+        <v>0.3302752293577982</v>
       </c>
       <c r="G68">
-        <v>0.4121365360303413</v>
+        <v>0.4417721518987342</v>
       </c>
       <c r="H68">
-        <v>0.346</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.4827586206896552</v>
+        <v>0.4636363636363636</v>
       </c>
       <c r="C69">
-        <v>0.5063810391978122</v>
+        <v>0.5298913043478261</v>
       </c>
       <c r="D69">
-        <v>0.4180327868852459</v>
+        <v>0.4</v>
       </c>
       <c r="E69">
-        <v>0.5071895424836601</v>
+        <v>0.45</v>
       </c>
       <c r="F69">
-        <v>0.3238095238095238</v>
+        <v>0.3302752293577982</v>
       </c>
       <c r="G69">
-        <v>0.4156171284634761</v>
+        <v>0.4481012658227848</v>
       </c>
       <c r="H69">
-        <v>0.336</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,22 +2194,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.4705882352941176</v>
+        <v>0.5092592592592593</v>
       </c>
       <c r="C70">
-        <v>0.5076507650765076</v>
+        <v>0.5303030303030303</v>
       </c>
       <c r="D70">
-        <v>0.4166666666666667</v>
+        <v>0.3300970873786408</v>
       </c>
       <c r="E70">
-        <v>0.4954367666232073</v>
+        <v>0.4569620253164557</v>
       </c>
       <c r="F70">
-        <v>0.3942307692307692</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="G70">
-        <v>0.4195979899497487</v>
+        <v>0.439751552795031</v>
       </c>
       <c r="H70">
         <v>0.33</v>
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.4915254237288136</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C71">
-        <v>0.5071556350626119</v>
+        <v>0.5277288732394366</v>
       </c>
       <c r="D71">
-        <v>0.3893805309734513</v>
+        <v>0.3295454545454545</v>
       </c>
       <c r="E71">
-        <v>0.4915254237288136</v>
+        <v>0.4519350811485643</v>
       </c>
       <c r="F71">
-        <v>0.4302325581395349</v>
+        <v>0.3368421052631579</v>
       </c>
       <c r="G71">
-        <v>0.4127979924717691</v>
+        <v>0.4407814407814408</v>
       </c>
       <c r="H71">
-        <v>0.328</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5041322314049587</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="C72">
-        <v>0.5055285272003538</v>
+        <v>0.5250219490781387</v>
       </c>
       <c r="D72">
-        <v>0.3769230769230769</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="E72">
-        <v>0.4890038809831824</v>
+        <v>0.45</v>
       </c>
       <c r="F72">
-        <v>0.4631578947368421</v>
+        <v>0.3645833333333333</v>
       </c>
       <c r="G72">
-        <v>0.4112607099143207</v>
+        <v>0.4331683168316832</v>
       </c>
       <c r="H72">
-        <v>0.332</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.4959349593495935</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="C73">
-        <v>0.5039543057996485</v>
+        <v>0.5247181266261925</v>
       </c>
       <c r="D73">
-        <v>0.408</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="E73">
-        <v>0.4887118193891102</v>
+        <v>0.4535175879396985</v>
       </c>
       <c r="F73">
-        <v>0.4673913043478261</v>
+        <v>0.3564356435643564</v>
       </c>
       <c r="G73">
-        <v>0.4117647058823529</v>
+        <v>0.4275</v>
       </c>
       <c r="H73">
-        <v>0.326</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.4690265486725664</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C74">
-        <v>0.5032651284283849</v>
+        <v>0.5268398268398269</v>
       </c>
       <c r="D74">
-        <v>0.4</v>
+        <v>0.3893805309734513</v>
       </c>
       <c r="E74">
-        <v>0.4795244385733157</v>
+        <v>0.4670116429495472</v>
       </c>
       <c r="F74">
-        <v>0.4324324324324325</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="G74">
-        <v>0.4105131414267835</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H74">
-        <v>0.32</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.5188679245283019</v>
+        <v>0.4786324786324787</v>
       </c>
       <c r="C75">
-        <v>0.5045278137128072</v>
+        <v>0.5243010752688172</v>
       </c>
       <c r="D75">
-        <v>0.3739837398373984</v>
+        <v>0.373015873015873</v>
       </c>
       <c r="E75">
-        <v>0.4828042328042328</v>
+        <v>0.4630606860158311</v>
       </c>
       <c r="F75">
-        <v>0.4205607476635514</v>
+        <v>0.2956521739130435</v>
       </c>
       <c r="G75">
-        <v>0.4129606099110547</v>
+        <v>0.4356687898089172</v>
       </c>
       <c r="H75">
-        <v>0.336</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.4482758620689655</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="C76">
-        <v>0.5004262574595055</v>
+        <v>0.520618556701031</v>
       </c>
       <c r="D76">
-        <v>0.3622047244094488</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="E76">
-        <v>0.485006518904824</v>
+        <v>0.4570673712021136</v>
       </c>
       <c r="F76">
-        <v>0.3904761904761905</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="G76">
-        <v>0.4135338345864661</v>
+        <v>0.4289340101522843</v>
       </c>
       <c r="H76">
-        <v>0.34</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.4897959183673469</v>
+        <v>0.4636363636363636</v>
       </c>
       <c r="C77">
-        <v>0.5063451776649747</v>
+        <v>0.5203217612193056</v>
       </c>
       <c r="D77">
-        <v>0.3684210526315789</v>
+        <v>0.4793388429752066</v>
       </c>
       <c r="E77">
-        <v>0.4850843060959792</v>
+        <v>0.4514877102199224</v>
       </c>
       <c r="F77">
-        <v>0.3365384615384616</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="G77">
-        <v>0.4180024660912454</v>
+        <v>0.4160401002506265</v>
       </c>
       <c r="H77">
-        <v>0.332</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.495049504950495</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C78">
-        <v>0.5045605306799337</v>
+        <v>0.5195296094078119</v>
       </c>
       <c r="D78">
-        <v>0.3508771929824561</v>
+        <v>0.4471544715447154</v>
       </c>
       <c r="E78">
-        <v>0.4814340588988476</v>
+        <v>0.455483870967742</v>
       </c>
       <c r="F78">
-        <v>0.3627450980392157</v>
+        <v>0.3865546218487395</v>
       </c>
       <c r="G78">
-        <v>0.4234122042341221</v>
+        <v>0.4082914572864322</v>
       </c>
       <c r="H78">
-        <v>0.332</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5252525252525253</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="C79">
-        <v>0.5070306038047974</v>
+        <v>0.5197177251971773</v>
       </c>
       <c r="D79">
-        <v>0.3904761904761905</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E79">
-        <v>0.4778645833333333</v>
+        <v>0.4607329842931937</v>
       </c>
       <c r="F79">
-        <v>0.4077669902912621</v>
+        <v>0.3831775700934579</v>
       </c>
       <c r="G79">
-        <v>0.4083438685208597</v>
+        <v>0.4092664092664093</v>
       </c>
       <c r="H79">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5728155339805825</v>
+        <v>0.5</v>
       </c>
       <c r="C80">
-        <v>0.5083571137382796</v>
+        <v>0.518365662401981</v>
       </c>
       <c r="D80">
-        <v>0.3577235772357724</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E80">
-        <v>0.4732824427480916</v>
+        <v>0.468668407310705</v>
       </c>
       <c r="F80">
-        <v>0.3818181818181818</v>
+        <v>0.3801652892561984</v>
       </c>
       <c r="G80">
-        <v>0.395</v>
+        <v>0.4156010230179028</v>
       </c>
       <c r="H80">
-        <v>0.362</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.6224489795918368</v>
+        <v>0.4862385321100918</v>
       </c>
       <c r="C81">
-        <v>0.5036319612590799</v>
+        <v>0.5167757774140753</v>
       </c>
       <c r="D81">
-        <v>0.3274336283185841</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="E81">
-        <v>0.4650571791613723</v>
+        <v>0.4635416666666667</v>
       </c>
       <c r="F81">
-        <v>0.3936170212765958</v>
+        <v>0.3252032520325203</v>
       </c>
       <c r="G81">
-        <v>0.4032059186189889</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="H81">
-        <v>0.352</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5643564356435643</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C82">
-        <v>0.5015961691939346</v>
+        <v>0.5182186234817814</v>
       </c>
       <c r="D82">
-        <v>0.3608247422680412</v>
+        <v>0.4608695652173913</v>
       </c>
       <c r="E82">
-        <v>0.4738186462324394</v>
+        <v>0.4644243208279431</v>
       </c>
       <c r="F82">
-        <v>0.4623655913978494</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="G82">
-        <v>0.4051724137931034</v>
+        <v>0.4312736443883985</v>
       </c>
       <c r="H82">
-        <v>0.348</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.4854368932038835</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C83">
-        <v>0.5053423031262366</v>
+        <v>0.5128617363344051</v>
       </c>
       <c r="D83">
-        <v>0.4190476190476191</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E83">
-        <v>0.4718397997496871</v>
+        <v>0.4606598984771574</v>
       </c>
       <c r="F83">
-        <v>0.3333333333333333</v>
+        <v>0.3195876288659794</v>
       </c>
       <c r="G83">
-        <v>0.4007398273736128</v>
+        <v>0.4278606965174129</v>
       </c>
       <c r="H83">
-        <v>0.354</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5225225225225225</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="C84">
-        <v>0.5098502758077226</v>
+        <v>0.5159235668789809</v>
       </c>
       <c r="D84">
-        <v>0.3333333333333333</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="E84">
-        <v>0.4727503168567808</v>
+        <v>0.472400513478819</v>
       </c>
       <c r="F84">
-        <v>0.3440860215053764</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="G84">
-        <v>0.4127182044887781</v>
+        <v>0.4213135068153656</v>
       </c>
       <c r="H84">
-        <v>0.344</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,22 +2584,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.4594594594594595</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="C85">
-        <v>0.5068493150684932</v>
+        <v>0.5144669044787951</v>
       </c>
       <c r="D85">
-        <v>0.3524590163934426</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E85">
-        <v>0.4768041237113402</v>
+        <v>0.4771838331160365</v>
       </c>
       <c r="F85">
-        <v>0.2941176470588235</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="G85">
-        <v>0.4102244389027431</v>
+        <v>0.4202719406674907</v>
       </c>
       <c r="H85">
         <v>0.332</v>
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.49</v>
+        <v>0.5045045045045045</v>
       </c>
       <c r="C86">
-        <v>0.5079797586609576</v>
+        <v>0.5096723253059613</v>
       </c>
       <c r="D86">
-        <v>0.4</v>
+        <v>0.4173913043478261</v>
       </c>
       <c r="E86">
-        <v>0.470976253298153</v>
+        <v>0.472400513478819</v>
       </c>
       <c r="F86">
-        <v>0.3539823008849557</v>
+        <v>0.3229166666666667</v>
       </c>
       <c r="G86">
-        <v>0.4062893081761006</v>
+        <v>0.4175</v>
       </c>
       <c r="H86">
-        <v>0.338</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.4336283185840708</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="C87">
-        <v>0.5063632857693791</v>
+        <v>0.5117739403453689</v>
       </c>
       <c r="D87">
-        <v>0.456</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="E87">
-        <v>0.4696569920844327</v>
+        <v>0.4708171206225681</v>
       </c>
       <c r="F87">
-        <v>0.3831775700934579</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="G87">
-        <v>0.3994910941475827</v>
+        <v>0.4114713216957606</v>
       </c>
       <c r="H87">
-        <v>0.332</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.4485981308411215</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="C88">
-        <v>0.5105973025048169</v>
+        <v>0.514330585001963</v>
       </c>
       <c r="D88">
-        <v>0.4032258064516129</v>
+        <v>0.40625</v>
       </c>
       <c r="E88">
-        <v>0.4704336399474376</v>
+        <v>0.4703557312252964</v>
       </c>
       <c r="F88">
-        <v>0.3490566037735849</v>
+        <v>0.2897196261682243</v>
       </c>
       <c r="G88">
-        <v>0.3984867591424969</v>
+        <v>0.4142312579415502</v>
       </c>
       <c r="H88">
-        <v>0.336</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.4230769230769231</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="C89">
-        <v>0.5095785440613027</v>
+        <v>0.5163424124513619</v>
       </c>
       <c r="D89">
-        <v>0.384</v>
+        <v>0.375</v>
       </c>
       <c r="E89">
-        <v>0.4728476821192053</v>
+        <v>0.4741035856573705</v>
       </c>
       <c r="F89">
-        <v>0.3211009174311927</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="G89">
-        <v>0.4043092522179975</v>
+        <v>0.4236641221374046</v>
       </c>
       <c r="H89">
-        <v>0.326</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.4102564102564102</v>
+        <v>0.4910714285714285</v>
       </c>
       <c r="C90">
-        <v>0.5094984802431611</v>
+        <v>0.5150695517774343</v>
       </c>
       <c r="D90">
-        <v>0.3893805309734513</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="E90">
-        <v>0.4669312169312169</v>
+        <v>0.4679738562091503</v>
       </c>
       <c r="F90">
-        <v>0.3771929824561404</v>
+        <v>0.3300970873786408</v>
       </c>
       <c r="G90">
-        <v>0.4017743979721166</v>
+        <v>0.4127388535031847</v>
       </c>
       <c r="H90">
-        <v>0.332</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.4666666666666667</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="C91">
-        <v>0.5096117602713909</v>
+        <v>0.5158095238095238</v>
       </c>
       <c r="D91">
-        <v>0.4090909090909091</v>
+        <v>0.3839285714285715</v>
       </c>
       <c r="E91">
-        <v>0.4548919949174079</v>
+        <v>0.4625322997416021</v>
       </c>
       <c r="F91">
-        <v>0.3716814159292036</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="G91">
-        <v>0.3977556109725686</v>
+        <v>0.4089219330855018</v>
       </c>
       <c r="H91">
-        <v>0.332</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2769,22 +2769,22 @@
         <v>0.5</v>
       </c>
       <c r="C92">
-        <v>0.5075018754688673</v>
+        <v>0.5147727272727273</v>
       </c>
       <c r="D92">
-        <v>0.4018691588785047</v>
+        <v>0.3302752293577982</v>
       </c>
       <c r="E92">
-        <v>0.4492385786802031</v>
+        <v>0.4569961489088575</v>
       </c>
       <c r="F92">
-        <v>0.4047619047619048</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="G92">
-        <v>0.4047322540473225</v>
+        <v>0.4062111801242236</v>
       </c>
       <c r="H92">
-        <v>0.332</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.4789915966386555</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="C93">
-        <v>0.505404398061871</v>
+        <v>0.5127340823970038</v>
       </c>
       <c r="D93">
-        <v>0.3931623931623932</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="E93">
-        <v>0.4415584415584415</v>
+        <v>0.45</v>
       </c>
       <c r="F93">
-        <v>0.375</v>
+        <v>0.3495145631067961</v>
       </c>
       <c r="G93">
-        <v>0.4093711467324291</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="H93">
-        <v>0.324</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.5309734513274337</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C94">
-        <v>0.5063056379821959</v>
+        <v>0.5087393082930457</v>
       </c>
       <c r="D94">
-        <v>0.4322033898305085</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="E94">
-        <v>0.4375</v>
+        <v>0.4514501891551072</v>
       </c>
       <c r="F94">
-        <v>0.4193548387096774</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G94">
-        <v>0.4169787765293383</v>
+        <v>0.4012422360248447</v>
       </c>
       <c r="H94">
-        <v>0.314</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.5663716814159292</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C95">
-        <v>0.5029347028613352</v>
+        <v>0.5061269959153361</v>
       </c>
       <c r="D95">
-        <v>0.4031007751937984</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="E95">
-        <v>0.4332036316472114</v>
+        <v>0.4491094147582697</v>
       </c>
       <c r="F95">
-        <v>0.3504273504273504</v>
+        <v>0.3814432989690721</v>
       </c>
       <c r="G95">
-        <v>0.4125615763546798</v>
+        <v>0.399749373433584</v>
       </c>
       <c r="H95">
-        <v>0.32</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.5041322314049587</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="C96">
-        <v>0.4998170508598609</v>
+        <v>0.5053328429569695</v>
       </c>
       <c r="D96">
         <v>0.4056603773584906</v>
       </c>
       <c r="E96">
-        <v>0.4438642297650131</v>
+        <v>0.4508301404853129</v>
       </c>
       <c r="F96">
-        <v>0.36</v>
+        <v>0.3980582524271845</v>
       </c>
       <c r="G96">
-        <v>0.4211853720050441</v>
+        <v>0.4002493765586035</v>
       </c>
       <c r="H96">
-        <v>0.32</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.512396694214876</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="C97">
-        <v>0.4987240247903755</v>
+        <v>0.5066127847171198</v>
       </c>
       <c r="D97">
-        <v>0.4210526315789473</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="E97">
-        <v>0.4302325581395349</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="F97">
-        <v>0.303921568627451</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="G97">
-        <v>0.4127979924717691</v>
+        <v>0.4040660736975858</v>
       </c>
       <c r="H97">
-        <v>0.342</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.4867256637168141</v>
+        <v>0.47</v>
       </c>
       <c r="C98">
-        <v>0.4981844589687727</v>
+        <v>0.5030830612985129</v>
       </c>
       <c r="D98">
-        <v>0.4789915966386555</v>
+        <v>0.4015151515151515</v>
       </c>
       <c r="E98">
-        <v>0.4429882044560944</v>
+        <v>0.4596354166666667</v>
       </c>
       <c r="F98">
-        <v>0.3679245283018868</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="G98">
-        <v>0.4156171284634761</v>
+        <v>0.4061302681992337</v>
       </c>
       <c r="H98">
-        <v>0.336</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.495575221238938</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="C99">
-        <v>0.4987405541561713</v>
+        <v>0.5025161754133717</v>
       </c>
       <c r="D99">
-        <v>0.3828125</v>
+        <v>0.3983050847457627</v>
       </c>
       <c r="E99">
-        <v>0.4458930899608866</v>
+        <v>0.4504504504504505</v>
       </c>
       <c r="F99">
-        <v>0.2521739130434782</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="G99">
-        <v>0.4150943396226415</v>
+        <v>0.3994974874371859</v>
       </c>
       <c r="H99">
-        <v>0.336</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.4833333333333333</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C100">
-        <v>0.4987504462691896</v>
+        <v>0.4971202303815695</v>
       </c>
       <c r="D100">
-        <v>0.4180327868852459</v>
+        <v>0.4257425742574257</v>
       </c>
       <c r="E100">
-        <v>0.4608355091383812</v>
+        <v>0.4553686934023286</v>
       </c>
       <c r="F100">
-        <v>0.2522522522522522</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="G100">
-        <v>0.4164556962025316</v>
+        <v>0.4074534161490683</v>
       </c>
       <c r="H100">
-        <v>0.33</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.4608695652173913</v>
+        <v>0.5045045045045045</v>
       </c>
       <c r="C101">
-        <v>0.4991119005328597</v>
+        <v>0.4955245255997136</v>
       </c>
       <c r="D101">
-        <v>0.3688524590163935</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="E101">
-        <v>0.4545454545454545</v>
+        <v>0.4551282051282051</v>
       </c>
       <c r="F101">
-        <v>0.308411214953271</v>
+        <v>0.3394495412844037</v>
       </c>
       <c r="G101">
-        <v>0.4139240506329114</v>
+        <v>0.4057071960297767</v>
       </c>
       <c r="H101">
-        <v>0.316</v>
+        <v>0.314</v>
       </c>
     </row>
   </sheetData>
